--- a/biology/Botanique/Mirabilis_(genre)/Mirabilis_(genre).xlsx
+++ b/biology/Botanique/Mirabilis_(genre)/Mirabilis_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirabilis est un genre de plantes dicotylédones, de la famille des Nyctaginacées, peut-être le plus connu avec les bougainvillées.
 Il existe plusieurs douzaines d'espèces de plantes herbacées de ce genre, principalement sur le continent américain. Les plus connues sont Mirabilis jalapa (ou Belle de nuit) et Mirabilis longiflora.
@@ -514,7 +526,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mirabilis aggregata (Ortega) Cav.
 Mirabilis albida (Walt.) Heimerl
